--- a/ad_works_dw/pipelines/tables.xlsx
+++ b/ad_works_dw/pipelines/tables.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunryan/databricks-patterns/ad_works_dw/pipelines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034619C6-15D4-B644-A145-6B28AE071F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394535C8-DD86-F749-BE25-CCC138C36F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33620" yWindow="1240" windowWidth="29580" windowHeight="21100" xr2:uid="{EF8CC655-0BC7-D149-95AE-B93FEDAFD6D1}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{EF8CC655-0BC7-D149-95AE-B93FEDAFD6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$32:$G$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$31:$G$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="141">
   <si>
     <t>stage</t>
   </si>
@@ -137,172 +137,7 @@
     <t>landing_ad_works_dw</t>
   </si>
   <si>
-    <t>dbo_dim_account</t>
-  </si>
-  <si>
-    <t>dbo_dim_currency</t>
-  </si>
-  <si>
-    <t>dbo_dim_customer</t>
-  </si>
-  <si>
-    <t>dbo_dim_date</t>
-  </si>
-  <si>
-    <t>dbo_dim_department_group</t>
-  </si>
-  <si>
-    <t>dbo_dim_employee</t>
-  </si>
-  <si>
-    <t>dbo_dim_geography</t>
-  </si>
-  <si>
-    <t>dbo_dim_organization</t>
-  </si>
-  <si>
-    <t>dbo_dim_product</t>
-  </si>
-  <si>
-    <t>dbo_dim_product_category</t>
-  </si>
-  <si>
-    <t>dbo_dim_product_subcategory</t>
-  </si>
-  <si>
-    <t>dbo_dim_promotion</t>
-  </si>
-  <si>
-    <t>dbo_dim_eseller</t>
-  </si>
-  <si>
-    <t>dbo_dim_salesreason</t>
-  </si>
-  <si>
-    <t>dbo_dim_salesterritory</t>
-  </si>
-  <si>
-    <t>dbo_dim_scenario</t>
-  </si>
-  <si>
-    <t>dbo_fact_additional_international_product_description</t>
-  </si>
-  <si>
-    <t>dbo_fact_call_center</t>
-  </si>
-  <si>
-    <t>dbo_fact_currency_rate</t>
-  </si>
-  <si>
-    <t>dbo_fact_finance</t>
-  </si>
-  <si>
-    <t>dbo_fact_internet_sales</t>
-  </si>
-  <si>
-    <t>dbo_fact_internet_sales_reason</t>
-  </si>
-  <si>
-    <t>dbo_fact_product_inventory</t>
-  </si>
-  <si>
-    <t>dbo_fact_reseller_sales</t>
-  </si>
-  <si>
-    <t>dbo_fact_sales_quota</t>
-  </si>
-  <si>
-    <t>dbo_fact_survey_response</t>
-  </si>
-  <si>
-    <t>dbo_new_fact_currency_rate</t>
-  </si>
-  <si>
-    <t>dbo_prospective_buyer</t>
-  </si>
-  <si>
     <t>raw_ad_works_dw</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_account</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_currency</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_customer</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_date</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_department_group</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_employee</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_geography</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_organization</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_product</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_product_category</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_product_subcategory</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_promotion</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_eseller</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_salesreason</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_salesterritory</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_scenario</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_fact_additional_international_product_description</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_fact_call_center</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_fact_currency_rate</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_fact_finance</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_fact_internet_sales</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_fact_internet_sales_reason</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_fact_product_inventory</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_fact_reseller_sales</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_fact_sales_quota</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_fact_survey_response</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_prospective_buyer</t>
   </si>
   <si>
     <t>AccountKey</t>
@@ -472,6 +307,168 @@
   </si>
   <si>
     <t>raw.raw_ad_works_dw.*</t>
+  </si>
+  <si>
+    <t>dbo_DimAccount</t>
+  </si>
+  <si>
+    <t>dbo_DimCurrency</t>
+  </si>
+  <si>
+    <t>dbo_DimCustomer</t>
+  </si>
+  <si>
+    <t>dbo_DimDate</t>
+  </si>
+  <si>
+    <t>dbo_DimDepartmentGroup</t>
+  </si>
+  <si>
+    <t>dbo_DimEmployee</t>
+  </si>
+  <si>
+    <t>dbo_DimGeography</t>
+  </si>
+  <si>
+    <t>dbo_DimOrganization</t>
+  </si>
+  <si>
+    <t>dbo_DimProduct</t>
+  </si>
+  <si>
+    <t>dbo_DimProductCategory</t>
+  </si>
+  <si>
+    <t>dbo_DimProductSubcategory</t>
+  </si>
+  <si>
+    <t>dbo_DimPromotion</t>
+  </si>
+  <si>
+    <t>dbo_DimReseller</t>
+  </si>
+  <si>
+    <t>dbo_DimSalesReason</t>
+  </si>
+  <si>
+    <t>dbo_SimSalesTerritory</t>
+  </si>
+  <si>
+    <t>dbo_DimScenario</t>
+  </si>
+  <si>
+    <t>dbo_FactAdditionalInternationalProductDescription</t>
+  </si>
+  <si>
+    <t>dbo_factCallCenter</t>
+  </si>
+  <si>
+    <t>dbo_FactCurrencyRate</t>
+  </si>
+  <si>
+    <t>dbo_FactFinance</t>
+  </si>
+  <si>
+    <t>dbo_FactInternetSales</t>
+  </si>
+  <si>
+    <t>dbo_FactInternetSalesReason</t>
+  </si>
+  <si>
+    <t>dbo_FactProductInventory</t>
+  </si>
+  <si>
+    <t>dbo_FactResellerSales</t>
+  </si>
+  <si>
+    <t>dbo_FactSalesQuota</t>
+  </si>
+  <si>
+    <t>dbo_FactSurveyResponse</t>
+  </si>
+  <si>
+    <t>dbo_ProspectiveBuyer</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_DimAccount</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_DimCurrency</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_DimCustomer</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_DimDate</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_DimDepartmentGroup</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_DimEmployee</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_DimGeography</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_DimOrganization</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_DimProduct</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_DimProductCategory</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_DimProductSubcategory</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_DimPromotion</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_DimReseller</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_DimSalesReason</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_SimSalesTerritory</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_DimScenario</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_FactAdditionalInternationalProductDescription</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_factCallCenter</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_FactCurrencyRate</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_FactFinance</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_FactInternetSales</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_FactInternetSalesReason</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_FactProductInventory</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_FactResellerSales</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_FactSalesQuota</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_FactSurveyResponse</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_ProspectiveBuyer</t>
   </si>
 </sst>
 </file>
@@ -628,16 +625,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -959,11 +956,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4BE862-6320-9C46-8273-3C68143DBB4D}">
-  <dimension ref="A1:X60"/>
+  <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -996,25 +993,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="24" t="s">
@@ -1025,31 +1022,31 @@
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="22" t="s">
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
       <c r="V1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="W1" s="25"/>
     </row>
     <row r="2" spans="1:24" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="11" t="s">
         <v>21</v>
       </c>
@@ -1107,7 +1104,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>15</v>
@@ -1117,7 +1114,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1150,7 +1147,7 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1164,7 +1161,7 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1178,7 +1175,7 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1192,7 +1189,7 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1206,7 +1203,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1220,7 +1217,7 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1234,7 +1231,7 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1248,7 +1245,7 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1262,7 +1259,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1276,7 +1273,7 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1290,7 +1287,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1304,7 +1301,7 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1318,7 +1315,7 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1332,7 +1329,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1346,7 +1343,7 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1360,7 +1357,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1374,7 +1371,7 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1388,7 +1385,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1402,7 +1399,7 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1416,7 +1413,7 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1430,7 +1427,7 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1444,7 +1441,7 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1458,7 +1455,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1472,7 +1469,7 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1486,7 +1483,7 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1500,7 +1497,7 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1514,22 +1511,46 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D31" t="s">
         <v>59</v>
       </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="6">
+        <v>30</v>
+      </c>
+      <c r="S31" s="2">
+        <v>0</v>
+      </c>
+      <c r="U31" s="2">
+        <v>1</v>
+      </c>
+      <c r="V31" s="18">
+        <v>1</v>
+      </c>
+      <c r="W31" s="16">
+        <v>365</v>
+      </c>
     </row>
     <row r="32" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
@@ -1539,16 +1560,16 @@
         <v>14</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
         <v>60</v>
       </c>
-      <c r="D32" t="s">
-        <v>114</v>
-      </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>25</v>
@@ -1577,16 +1598,16 @@
         <v>14</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>25</v>
@@ -1615,16 +1636,16 @@
         <v>14</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>25</v>
@@ -1653,16 +1674,16 @@
         <v>14</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>25</v>
@@ -1691,16 +1712,16 @@
         <v>14</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="F36" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>25</v>
@@ -1729,16 +1750,16 @@
         <v>14</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>25</v>
@@ -1767,16 +1788,16 @@
         <v>14</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="F38" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>25</v>
@@ -1805,16 +1826,16 @@
         <v>14</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>25</v>
@@ -1843,16 +1864,16 @@
         <v>14</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="F40" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>25</v>
@@ -1881,16 +1902,16 @@
         <v>14</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>25</v>
@@ -1919,16 +1940,16 @@
         <v>14</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="F42" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>25</v>
@@ -1957,16 +1978,16 @@
         <v>14</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="F43" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>25</v>
@@ -1995,16 +2016,16 @@
         <v>14</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="F44" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>25</v>
@@ -2033,16 +2054,16 @@
         <v>14</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="F45" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>25</v>
@@ -2071,16 +2092,16 @@
         <v>14</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="F46" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>25</v>
@@ -2109,244 +2130,244 @@
         <v>14</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="F47" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="G47" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" s="6">
+        <v>30</v>
+      </c>
+      <c r="S47" s="2">
+        <v>0</v>
+      </c>
+      <c r="U47" s="2">
+        <v>1</v>
+      </c>
+      <c r="V47" s="18">
+        <v>1</v>
+      </c>
+      <c r="W47" s="16">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" t="s">
         <v>76</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M47" s="6">
-        <v>30</v>
-      </c>
-      <c r="S47" s="2">
-        <v>0</v>
-      </c>
-      <c r="U47" s="2">
-        <v>1</v>
-      </c>
-      <c r="V47" s="18">
-        <v>1</v>
-      </c>
-      <c r="W47" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" t="s">
-        <v>130</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
+      <c r="F48" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="G48" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48" s="6">
+        <v>30</v>
+      </c>
+      <c r="S48" s="2">
+        <v>0</v>
+      </c>
+      <c r="U48" s="2">
+        <v>1</v>
+      </c>
+      <c r="V48" s="18">
+        <v>1</v>
+      </c>
+      <c r="W48" s="16">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" t="s">
         <v>77</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M48" s="6">
-        <v>30</v>
-      </c>
-      <c r="S48" s="2">
-        <v>0</v>
-      </c>
-      <c r="U48" s="2">
-        <v>1</v>
-      </c>
-      <c r="V48" s="18">
-        <v>1</v>
-      </c>
-      <c r="W48" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" t="s">
-        <v>131</v>
-      </c>
       <c r="F49" s="19" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M49" s="6">
+        <v>30</v>
+      </c>
+      <c r="S49" s="2">
+        <v>0</v>
+      </c>
+      <c r="U49" s="2">
+        <v>1</v>
+      </c>
+      <c r="V49" s="18">
+        <v>1</v>
+      </c>
+      <c r="W49" s="16">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" t="s">
         <v>78</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M49" s="6">
-        <v>30</v>
-      </c>
-      <c r="S49" s="2">
-        <v>0</v>
-      </c>
-      <c r="U49" s="2">
-        <v>1</v>
-      </c>
-      <c r="V49" s="18">
-        <v>1</v>
-      </c>
-      <c r="W49" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" t="s">
-        <v>132</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>104</v>
+      <c r="F50" t="s">
+        <v>50</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M50" s="6">
+        <v>30</v>
+      </c>
+      <c r="S50" s="2">
+        <v>0</v>
+      </c>
+      <c r="U50" s="2">
+        <v>1</v>
+      </c>
+      <c r="V50" s="18">
+        <v>1</v>
+      </c>
+      <c r="W50" s="16">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" t="s">
         <v>79</v>
       </c>
-      <c r="L50" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M50" s="6">
-        <v>30</v>
-      </c>
-      <c r="S50" s="2">
-        <v>0</v>
-      </c>
-      <c r="U50" s="2">
-        <v>1</v>
-      </c>
-      <c r="V50" s="18">
-        <v>1</v>
-      </c>
-      <c r="W50" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" t="s">
-        <v>133</v>
-      </c>
-      <c r="F51" t="s">
-        <v>105</v>
+      <c r="F51" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="G51" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M51" s="6">
+        <v>30</v>
+      </c>
+      <c r="S51" s="2">
+        <v>0</v>
+      </c>
+      <c r="U51" s="2">
+        <v>1</v>
+      </c>
+      <c r="V51" s="18">
+        <v>1</v>
+      </c>
+      <c r="W51" s="16">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" t="s">
         <v>80</v>
       </c>
-      <c r="L51" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M51" s="6">
-        <v>30</v>
-      </c>
-      <c r="S51" s="2">
-        <v>0</v>
-      </c>
-      <c r="U51" s="2">
-        <v>1</v>
-      </c>
-      <c r="V51" s="18">
-        <v>1</v>
-      </c>
-      <c r="W51" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" t="s">
-        <v>134</v>
-      </c>
       <c r="F52" s="19" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="G52" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M52" s="6">
+        <v>30</v>
+      </c>
+      <c r="S52" s="2">
+        <v>0</v>
+      </c>
+      <c r="U52" s="2">
+        <v>1</v>
+      </c>
+      <c r="V52" s="18">
+        <v>1</v>
+      </c>
+      <c r="W52" s="16">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" t="s">
         <v>81</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M52" s="6">
-        <v>30</v>
-      </c>
-      <c r="S52" s="2">
-        <v>0</v>
-      </c>
-      <c r="U52" s="2">
-        <v>1</v>
-      </c>
-      <c r="V52" s="18">
-        <v>1</v>
-      </c>
-      <c r="W52" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" t="s">
-        <v>135</v>
-      </c>
       <c r="F53" s="19" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>25</v>
@@ -2375,54 +2396,54 @@
         <v>14</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D54" t="s">
-        <v>136</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>108</v>
+        <v>82</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="G54" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M54" s="6">
+        <v>30</v>
+      </c>
+      <c r="S54" s="2">
+        <v>0</v>
+      </c>
+      <c r="U54" s="2">
+        <v>1</v>
+      </c>
+      <c r="V54" s="18">
+        <v>1</v>
+      </c>
+      <c r="W54" s="16">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" t="s">
         <v>83</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M54" s="6">
-        <v>30</v>
-      </c>
-      <c r="S54" s="2">
-        <v>0</v>
-      </c>
-      <c r="U54" s="2">
-        <v>1</v>
-      </c>
-      <c r="V54" s="18">
-        <v>1</v>
-      </c>
-      <c r="W54" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" t="s">
-        <v>137</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>106</v>
+      <c r="F55" t="s">
+        <v>54</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>25</v>
@@ -2451,16 +2472,16 @@
         <v>14</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D56" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="F56" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>25</v>
@@ -2489,16 +2510,16 @@
         <v>14</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>25</v>
@@ -2519,83 +2540,45 @@
         <v>365</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" t="s">
-        <v>140</v>
-      </c>
-      <c r="F58" t="s">
-        <v>111</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M58" s="6">
-        <v>30</v>
-      </c>
-      <c r="S58" s="2">
-        <v>0</v>
-      </c>
-      <c r="U58" s="2">
-        <v>1</v>
-      </c>
-      <c r="V58" s="18">
-        <v>1</v>
-      </c>
-      <c r="W58" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="15"/>
-      <c r="W60" s="17"/>
-      <c r="X60" s="6"/>
+    <row r="59" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="17"/>
+      <c r="X59" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="V1:W1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ad_works_dw/pipelines/tables.xlsx
+++ b/ad_works_dw/pipelines/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunryan/databricks-patterns/ad_works_dw/pipelines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394535C8-DD86-F749-BE25-CCC138C36F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA45FEDC-C5C0-1C49-97C8-C7CDD00CCB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{EF8CC655-0BC7-D149-95AE-B93FEDAFD6D1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$31:$G$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$32:$G$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="142">
   <si>
     <t>stage</t>
   </si>
@@ -137,7 +137,172 @@
     <t>landing_ad_works_dw</t>
   </si>
   <si>
+    <t>dbo_dim_account</t>
+  </si>
+  <si>
+    <t>dbo_dim_currency</t>
+  </si>
+  <si>
+    <t>dbo_dim_customer</t>
+  </si>
+  <si>
+    <t>dbo_dim_date</t>
+  </si>
+  <si>
+    <t>dbo_dim_department_group</t>
+  </si>
+  <si>
+    <t>dbo_dim_employee</t>
+  </si>
+  <si>
+    <t>dbo_dim_geography</t>
+  </si>
+  <si>
+    <t>dbo_dim_organization</t>
+  </si>
+  <si>
+    <t>dbo_dim_product</t>
+  </si>
+  <si>
+    <t>dbo_dim_product_category</t>
+  </si>
+  <si>
+    <t>dbo_dim_product_subcategory</t>
+  </si>
+  <si>
+    <t>dbo_dim_promotion</t>
+  </si>
+  <si>
+    <t>dbo_dim_eseller</t>
+  </si>
+  <si>
+    <t>dbo_dim_salesreason</t>
+  </si>
+  <si>
+    <t>dbo_dim_salesterritory</t>
+  </si>
+  <si>
+    <t>dbo_dim_scenario</t>
+  </si>
+  <si>
+    <t>dbo_fact_additional_international_product_description</t>
+  </si>
+  <si>
+    <t>dbo_fact_call_center</t>
+  </si>
+  <si>
+    <t>dbo_fact_currency_rate</t>
+  </si>
+  <si>
+    <t>dbo_fact_finance</t>
+  </si>
+  <si>
+    <t>dbo_fact_internet_sales</t>
+  </si>
+  <si>
+    <t>dbo_fact_internet_sales_reason</t>
+  </si>
+  <si>
+    <t>dbo_fact_product_inventory</t>
+  </si>
+  <si>
+    <t>dbo_fact_reseller_sales</t>
+  </si>
+  <si>
+    <t>dbo_fact_sales_quota</t>
+  </si>
+  <si>
+    <t>dbo_fact_survey_response</t>
+  </si>
+  <si>
+    <t>dbo_new_fact_currency_rate</t>
+  </si>
+  <si>
+    <t>dbo_prospective_buyer</t>
+  </si>
+  <si>
     <t>raw_ad_works_dw</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_dim_account</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_dim_currency</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_dim_customer</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_dim_date</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_dim_department_group</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_dim_employee</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_dim_geography</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_dim_organization</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_dim_product</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_dim_product_category</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_dim_product_subcategory</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_dim_promotion</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_dim_eseller</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_dim_salesreason</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_dim_salesterritory</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_dim_scenario</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_fact_additional_international_product_description</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_fact_call_center</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_fact_currency_rate</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_fact_finance</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_fact_internet_sales</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_fact_internet_sales_reason</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_fact_product_inventory</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_fact_reseller_sales</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_fact_sales_quota</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_fact_survey_response</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dbo_prospective_buyer</t>
   </si>
   <si>
     <t>AccountKey</t>
@@ -307,168 +472,6 @@
   </si>
   <si>
     <t>raw.raw_ad_works_dw.*</t>
-  </si>
-  <si>
-    <t>dbo_DimAccount</t>
-  </si>
-  <si>
-    <t>dbo_DimCurrency</t>
-  </si>
-  <si>
-    <t>dbo_DimCustomer</t>
-  </si>
-  <si>
-    <t>dbo_DimDate</t>
-  </si>
-  <si>
-    <t>dbo_DimDepartmentGroup</t>
-  </si>
-  <si>
-    <t>dbo_DimEmployee</t>
-  </si>
-  <si>
-    <t>dbo_DimGeography</t>
-  </si>
-  <si>
-    <t>dbo_DimOrganization</t>
-  </si>
-  <si>
-    <t>dbo_DimProduct</t>
-  </si>
-  <si>
-    <t>dbo_DimProductCategory</t>
-  </si>
-  <si>
-    <t>dbo_DimProductSubcategory</t>
-  </si>
-  <si>
-    <t>dbo_DimPromotion</t>
-  </si>
-  <si>
-    <t>dbo_DimReseller</t>
-  </si>
-  <si>
-    <t>dbo_DimSalesReason</t>
-  </si>
-  <si>
-    <t>dbo_SimSalesTerritory</t>
-  </si>
-  <si>
-    <t>dbo_DimScenario</t>
-  </si>
-  <si>
-    <t>dbo_FactAdditionalInternationalProductDescription</t>
-  </si>
-  <si>
-    <t>dbo_factCallCenter</t>
-  </si>
-  <si>
-    <t>dbo_FactCurrencyRate</t>
-  </si>
-  <si>
-    <t>dbo_FactFinance</t>
-  </si>
-  <si>
-    <t>dbo_FactInternetSales</t>
-  </si>
-  <si>
-    <t>dbo_FactInternetSalesReason</t>
-  </si>
-  <si>
-    <t>dbo_FactProductInventory</t>
-  </si>
-  <si>
-    <t>dbo_FactResellerSales</t>
-  </si>
-  <si>
-    <t>dbo_FactSalesQuota</t>
-  </si>
-  <si>
-    <t>dbo_FactSurveyResponse</t>
-  </si>
-  <si>
-    <t>dbo_ProspectiveBuyer</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_DimAccount</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_DimCurrency</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_DimCustomer</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_DimDate</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_DimDepartmentGroup</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_DimEmployee</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_DimGeography</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_DimOrganization</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_DimProduct</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_DimProductCategory</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_DimProductSubcategory</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_DimPromotion</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_DimReseller</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_DimSalesReason</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_SimSalesTerritory</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_DimScenario</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_FactAdditionalInternationalProductDescription</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_factCallCenter</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_FactCurrencyRate</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_FactFinance</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_FactInternetSales</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_FactInternetSalesReason</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_FactProductInventory</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_FactResellerSales</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_FactSalesQuota</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_FactSurveyResponse</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_ProspectiveBuyer</t>
   </si>
 </sst>
 </file>
@@ -956,11 +959,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4BE862-6320-9C46-8273-3C68143DBB4D}">
-  <dimension ref="A1:X59"/>
+  <dimension ref="A1:X60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1104,7 +1107,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>15</v>
@@ -1114,7 +1117,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1147,7 +1150,7 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1161,7 +1164,7 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1175,7 +1178,7 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1189,7 +1192,7 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1203,7 +1206,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1217,7 +1220,7 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1231,7 +1234,7 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1245,7 +1248,7 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1259,7 +1262,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1273,7 +1276,7 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1287,7 +1290,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1301,7 +1304,7 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1315,7 +1318,7 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1329,7 +1332,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1343,7 +1346,7 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1357,7 +1360,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1371,7 +1374,7 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1385,7 +1388,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1399,7 +1402,7 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1413,7 +1416,7 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1427,7 +1430,7 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1441,7 +1444,7 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1455,7 +1458,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1469,7 +1472,7 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1483,7 +1486,7 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1497,7 +1500,7 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1511,45 +1514,21 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M31" s="6">
-        <v>30</v>
-      </c>
-      <c r="S31" s="2">
-        <v>0</v>
-      </c>
-      <c r="U31" s="2">
-        <v>1</v>
-      </c>
-      <c r="V31" s="18">
-        <v>1</v>
-      </c>
-      <c r="W31" s="16">
-        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1560,16 +1539,16 @@
         <v>14</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>25</v>
@@ -1598,16 +1577,16 @@
         <v>14</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>25</v>
@@ -1636,16 +1615,16 @@
         <v>14</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>25</v>
@@ -1674,16 +1653,16 @@
         <v>14</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>25</v>
@@ -1712,16 +1691,16 @@
         <v>14</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>25</v>
@@ -1750,16 +1729,16 @@
         <v>14</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>25</v>
@@ -1788,16 +1767,16 @@
         <v>14</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>25</v>
@@ -1826,16 +1805,16 @@
         <v>14</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>25</v>
@@ -1864,16 +1843,16 @@
         <v>14</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>25</v>
@@ -1902,16 +1881,16 @@
         <v>14</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>25</v>
@@ -1940,16 +1919,16 @@
         <v>14</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>25</v>
@@ -1978,16 +1957,16 @@
         <v>14</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>25</v>
@@ -2016,16 +1995,16 @@
         <v>14</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>25</v>
@@ -2054,16 +2033,16 @@
         <v>14</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>25</v>
@@ -2092,16 +2071,16 @@
         <v>14</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D46" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>25</v>
@@ -2130,16 +2109,16 @@
         <v>14</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>25</v>
@@ -2160,7 +2139,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>18</v>
       </c>
@@ -2168,16 +2147,16 @@
         <v>14</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>76</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>57</v>
+        <v>130</v>
+      </c>
+      <c r="F48" t="s">
+        <v>96</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>25</v>
@@ -2198,7 +2177,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>18</v>
       </c>
@@ -2206,16 +2185,16 @@
         <v>14</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D49" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>25</v>
@@ -2236,7 +2215,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>18</v>
       </c>
@@ -2244,16 +2223,16 @@
         <v>14</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>78</v>
-      </c>
-      <c r="F50" t="s">
-        <v>50</v>
+        <v>132</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>25</v>
@@ -2274,7 +2253,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>18</v>
       </c>
@@ -2282,16 +2261,16 @@
         <v>14</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>79</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>51</v>
+        <v>133</v>
+      </c>
+      <c r="F51" t="s">
+        <v>105</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>25</v>
@@ -2312,7 +2291,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>18</v>
       </c>
@@ -2320,16 +2299,16 @@
         <v>14</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D52" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>25</v>
@@ -2350,7 +2329,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>18</v>
       </c>
@@ -2358,16 +2337,16 @@
         <v>14</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>25</v>
@@ -2396,16 +2375,16 @@
         <v>14</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D54" t="s">
-        <v>82</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>51</v>
+        <v>136</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>25</v>
@@ -2426,7 +2405,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>18</v>
       </c>
@@ -2434,16 +2413,16 @@
         <v>14</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>83</v>
-      </c>
-      <c r="F55" t="s">
-        <v>54</v>
+        <v>137</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>25</v>
@@ -2472,16 +2451,16 @@
         <v>14</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="F56" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>25</v>
@@ -2510,16 +2489,16 @@
         <v>14</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>25</v>
@@ -2540,31 +2519,69 @@
         <v>365</v>
       </c>
     </row>
-    <row r="59" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="15"/>
-      <c r="W59" s="17"/>
-      <c r="X59" s="6"/>
+    <row r="58" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" t="s">
+        <v>140</v>
+      </c>
+      <c r="F58" t="s">
+        <v>111</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M58" s="6">
+        <v>30</v>
+      </c>
+      <c r="S58" s="2">
+        <v>0</v>
+      </c>
+      <c r="U58" s="2">
+        <v>1</v>
+      </c>
+      <c r="V58" s="18">
+        <v>1</v>
+      </c>
+      <c r="W58" s="16">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="15"/>
+      <c r="W60" s="17"/>
+      <c r="X60" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/ad_works_dw/pipelines/tables.xlsx
+++ b/ad_works_dw/pipelines/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunryan/databricks-patterns/ad_works_dw/pipelines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA45FEDC-C5C0-1C49-97C8-C7CDD00CCB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EBF084-5582-CD44-9693-92B7824CD216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{EF8CC655-0BC7-D149-95AE-B93FEDAFD6D1}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="116">
   <si>
     <t>stage</t>
   </si>
@@ -137,172 +137,7 @@
     <t>landing_ad_works_dw</t>
   </si>
   <si>
-    <t>dbo_dim_account</t>
-  </si>
-  <si>
-    <t>dbo_dim_currency</t>
-  </si>
-  <si>
-    <t>dbo_dim_customer</t>
-  </si>
-  <si>
-    <t>dbo_dim_date</t>
-  </si>
-  <si>
-    <t>dbo_dim_department_group</t>
-  </si>
-  <si>
-    <t>dbo_dim_employee</t>
-  </si>
-  <si>
-    <t>dbo_dim_geography</t>
-  </si>
-  <si>
-    <t>dbo_dim_organization</t>
-  </si>
-  <si>
-    <t>dbo_dim_product</t>
-  </si>
-  <si>
-    <t>dbo_dim_product_category</t>
-  </si>
-  <si>
-    <t>dbo_dim_product_subcategory</t>
-  </si>
-  <si>
-    <t>dbo_dim_promotion</t>
-  </si>
-  <si>
-    <t>dbo_dim_eseller</t>
-  </si>
-  <si>
-    <t>dbo_dim_salesreason</t>
-  </si>
-  <si>
-    <t>dbo_dim_salesterritory</t>
-  </si>
-  <si>
-    <t>dbo_dim_scenario</t>
-  </si>
-  <si>
-    <t>dbo_fact_additional_international_product_description</t>
-  </si>
-  <si>
-    <t>dbo_fact_call_center</t>
-  </si>
-  <si>
-    <t>dbo_fact_currency_rate</t>
-  </si>
-  <si>
-    <t>dbo_fact_finance</t>
-  </si>
-  <si>
-    <t>dbo_fact_internet_sales</t>
-  </si>
-  <si>
-    <t>dbo_fact_internet_sales_reason</t>
-  </si>
-  <si>
-    <t>dbo_fact_product_inventory</t>
-  </si>
-  <si>
-    <t>dbo_fact_reseller_sales</t>
-  </si>
-  <si>
-    <t>dbo_fact_sales_quota</t>
-  </si>
-  <si>
-    <t>dbo_fact_survey_response</t>
-  </si>
-  <si>
-    <t>dbo_new_fact_currency_rate</t>
-  </si>
-  <si>
-    <t>dbo_prospective_buyer</t>
-  </si>
-  <si>
     <t>raw_ad_works_dw</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_account</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_currency</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_customer</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_date</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_department_group</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_employee</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_geography</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_organization</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_product</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_product_category</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_product_subcategory</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_promotion</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_eseller</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_salesreason</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_salesterritory</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_dim_scenario</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_fact_additional_international_product_description</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_fact_call_center</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_fact_currency_rate</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_fact_finance</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_fact_internet_sales</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_fact_internet_sales_reason</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_fact_product_inventory</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_fact_reseller_sales</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_fact_sales_quota</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_fact_survey_response</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dbo_prospective_buyer</t>
   </si>
   <si>
     <t>AccountKey</t>
@@ -472,6 +307,93 @@
   </si>
   <si>
     <t>raw.raw_ad_works_dw.*</t>
+  </si>
+  <si>
+    <t>dim_eseller</t>
+  </si>
+  <si>
+    <t>new_fact_currency_rate</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_account</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_currency</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_customer</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_date</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_department_group</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_employee</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_geography</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_organization</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_product</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_product_category</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_product_subcategory</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_promotion</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_eseller</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_salesreason</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_salesterritory</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_scenario</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.fact_additional_international_product_description</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.fact_call_center</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.fact_currency_rate</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.fact_finance</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.fact_internet_sales</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.fact_internet_sales_reason</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.fact_product_inventory</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.fact_reseller_sales</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.fact_sales_quota</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.fact_survey_response</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.prospective_buyer</t>
   </si>
 </sst>
 </file>
@@ -962,8 +884,8 @@
   <dimension ref="A1:X60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1107,7 +1029,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>15</v>
@@ -1117,7 +1039,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1150,7 +1072,7 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1164,7 +1086,7 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1178,7 +1100,7 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1192,7 +1114,7 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1206,7 +1128,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1220,7 +1142,7 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1234,7 +1156,7 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1248,7 +1170,7 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1262,7 +1184,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1276,7 +1198,7 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1290,7 +1212,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1304,7 +1226,7 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1318,7 +1240,7 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1332,7 +1254,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1346,7 +1268,7 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1360,7 +1282,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1374,7 +1296,7 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1388,7 +1310,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1402,7 +1324,7 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1416,7 +1338,7 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1430,7 +1352,7 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1444,7 +1366,7 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1458,7 +1380,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1472,7 +1394,7 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1486,7 +1408,7 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1500,7 +1422,7 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1514,7 +1436,7 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1528,7 +1450,7 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1539,16 +1461,16 @@
         <v>14</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>25</v>
@@ -1577,16 +1499,16 @@
         <v>14</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
         <v>60</v>
       </c>
-      <c r="D33" t="s">
-        <v>115</v>
-      </c>
       <c r="F33" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>25</v>
@@ -1615,16 +1537,16 @@
         <v>14</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="F34" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>25</v>
@@ -1653,16 +1575,16 @@
         <v>14</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>25</v>
@@ -1691,16 +1613,16 @@
         <v>14</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="F36" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>25</v>
@@ -1729,16 +1651,16 @@
         <v>14</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>25</v>
@@ -1767,16 +1689,16 @@
         <v>14</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="F38" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>25</v>
@@ -1805,16 +1727,16 @@
         <v>14</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>25</v>
@@ -1843,16 +1765,16 @@
         <v>14</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="F40" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>25</v>
@@ -1881,16 +1803,16 @@
         <v>14</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>25</v>
@@ -1919,16 +1841,16 @@
         <v>14</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="F42" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>25</v>
@@ -1957,16 +1879,16 @@
         <v>14</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="F43" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>25</v>
@@ -1995,16 +1917,16 @@
         <v>14</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="F44" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>25</v>
@@ -2033,16 +1955,16 @@
         <v>14</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="F45" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>25</v>
@@ -2071,16 +1993,16 @@
         <v>14</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="F46" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>25</v>
@@ -2109,16 +2031,16 @@
         <v>14</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="F47" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>25</v>
@@ -2147,16 +2069,16 @@
         <v>14</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>25</v>
@@ -2185,16 +2107,16 @@
         <v>14</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>25</v>
@@ -2223,16 +2145,16 @@
         <v>14</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>25</v>
@@ -2261,16 +2183,16 @@
         <v>14</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>25</v>
@@ -2299,16 +2221,16 @@
         <v>14</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>25</v>
@@ -2337,16 +2259,16 @@
         <v>14</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>25</v>
@@ -2375,16 +2297,16 @@
         <v>14</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D54" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>25</v>
@@ -2413,16 +2335,16 @@
         <v>14</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>25</v>
@@ -2451,16 +2373,16 @@
         <v>14</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D56" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="F56" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>25</v>
@@ -2489,16 +2411,16 @@
         <v>14</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>25</v>
@@ -2527,16 +2449,16 @@
         <v>14</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D58" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="F58" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>25</v>

--- a/ad_works_dw/pipelines/tables.xlsx
+++ b/ad_works_dw/pipelines/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunryan/databricks-patterns/ad_works_dw/pipelines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EBF084-5582-CD44-9693-92B7824CD216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256B8B94-9D7D-384D-9645-7ABD459297EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{EF8CC655-0BC7-D149-95AE-B93FEDAFD6D1}"/>
   </bookViews>
@@ -237,9 +237,6 @@
     <t>dim_date</t>
   </si>
   <si>
-    <t>dim_department_group</t>
-  </si>
-  <si>
     <t>dim_employee</t>
   </si>
   <si>
@@ -327,9 +324,6 @@
     <t>landing.landing_ad_works_dw.dim_date</t>
   </si>
   <si>
-    <t>landing.landing_ad_works_dw.dim_department_group</t>
-  </si>
-  <si>
     <t>landing.landing_ad_works_dw.dim_employee</t>
   </si>
   <si>
@@ -394,6 +388,12 @@
   </si>
   <si>
     <t>landing.landing_ad_works_dw.prospective_buyer</t>
+  </si>
+  <si>
+    <t>dim_department</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_department</t>
   </si>
 </sst>
 </file>
@@ -884,8 +884,8 @@
   <dimension ref="A1:X60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1128,7 +1128,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1142,7 +1142,7 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1156,7 +1156,7 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1170,7 +1170,7 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1184,7 +1184,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1198,7 +1198,7 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1212,7 +1212,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1226,7 +1226,7 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1240,7 +1240,7 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1254,7 +1254,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1268,7 +1268,7 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1282,7 +1282,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1296,7 +1296,7 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1310,7 +1310,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1324,7 +1324,7 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1338,7 +1338,7 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1352,7 +1352,7 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1366,7 +1366,7 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1380,7 +1380,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1394,7 +1394,7 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1408,7 +1408,7 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1422,7 +1422,7 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1436,7 +1436,7 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1450,7 +1450,7 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1470,7 +1470,7 @@
         <v>33</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>25</v>
@@ -1508,7 +1508,7 @@
         <v>34</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>25</v>
@@ -1546,7 +1546,7 @@
         <v>35</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>25</v>
@@ -1584,7 +1584,7 @@
         <v>36</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>25</v>
@@ -1616,13 +1616,13 @@
         <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="F36" t="s">
         <v>37</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>25</v>
@@ -1654,13 +1654,13 @@
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F37" t="s">
         <v>38</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>25</v>
@@ -1692,13 +1692,13 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F38" t="s">
         <v>39</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>25</v>
@@ -1730,13 +1730,13 @@
         <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F39" t="s">
         <v>40</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>25</v>
@@ -1768,13 +1768,13 @@
         <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F40" t="s">
         <v>41</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>25</v>
@@ -1806,13 +1806,13 @@
         <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F41" t="s">
         <v>42</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>25</v>
@@ -1844,13 +1844,13 @@
         <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F42" t="s">
         <v>43</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>25</v>
@@ -1882,13 +1882,13 @@
         <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F43" t="s">
         <v>44</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>25</v>
@@ -1920,13 +1920,13 @@
         <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F44" t="s">
         <v>45</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>25</v>
@@ -1958,13 +1958,13 @@
         <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F45" t="s">
         <v>46</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>25</v>
@@ -1996,13 +1996,13 @@
         <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F46" t="s">
         <v>47</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>25</v>
@@ -2034,13 +2034,13 @@
         <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F47" t="s">
         <v>48</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>25</v>
@@ -2072,13 +2072,13 @@
         <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F48" t="s">
         <v>41</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>25</v>
@@ -2110,13 +2110,13 @@
         <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F49" s="19" t="s">
         <v>57</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>25</v>
@@ -2148,13 +2148,13 @@
         <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F50" s="19" t="s">
         <v>49</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>25</v>
@@ -2186,13 +2186,13 @@
         <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s">
         <v>50</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>25</v>
@@ -2224,13 +2224,13 @@
         <v>32</v>
       </c>
       <c r="D52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F52" s="19" t="s">
         <v>51</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>25</v>
@@ -2262,13 +2262,13 @@
         <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F53" s="19" t="s">
         <v>52</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>25</v>
@@ -2300,13 +2300,13 @@
         <v>32</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F54" s="19" t="s">
         <v>53</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>25</v>
@@ -2338,13 +2338,13 @@
         <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>25</v>
@@ -2376,13 +2376,13 @@
         <v>32</v>
       </c>
       <c r="D56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F56" t="s">
         <v>54</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>25</v>
@@ -2414,13 +2414,13 @@
         <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F57" t="s">
         <v>55</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>25</v>
@@ -2452,13 +2452,13 @@
         <v>32</v>
       </c>
       <c r="D58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F58" t="s">
         <v>56</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>25</v>

--- a/ad_works_dw/pipelines/tables.xlsx
+++ b/ad_works_dw/pipelines/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunryan/databricks-patterns/ad_works_dw/pipelines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256B8B94-9D7D-384D-9645-7ABD459297EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E6D450-6ADF-B140-B0D2-6FDFC422E8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{EF8CC655-0BC7-D149-95AE-B93FEDAFD6D1}"/>
   </bookViews>
@@ -252,9 +252,6 @@
     <t>dim_product_category</t>
   </si>
   <si>
-    <t>dim_product_subcategory</t>
-  </si>
-  <si>
     <t>dim_promotion</t>
   </si>
   <si>
@@ -339,9 +336,6 @@
     <t>landing.landing_ad_works_dw.dim_product_category</t>
   </si>
   <si>
-    <t>landing.landing_ad_works_dw.dim_product_subcategory</t>
-  </si>
-  <si>
     <t>landing.landing_ad_works_dw.dim_promotion</t>
   </si>
   <si>
@@ -394,6 +388,12 @@
   </si>
   <si>
     <t>landing.landing_ad_works_dw.dim_department</t>
+  </si>
+  <si>
+    <t>dim_product_sub_category</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_product_sub_category</t>
   </si>
 </sst>
 </file>
@@ -884,8 +884,8 @@
   <dimension ref="A1:X60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1128,7 +1128,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1212,7 +1212,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1226,7 +1226,7 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1240,7 +1240,7 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1254,7 +1254,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1268,7 +1268,7 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1282,7 +1282,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1296,7 +1296,7 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1310,7 +1310,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1324,7 +1324,7 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1338,7 +1338,7 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1352,7 +1352,7 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1366,7 +1366,7 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1380,7 +1380,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1394,7 +1394,7 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1408,7 +1408,7 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1422,7 +1422,7 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1436,7 +1436,7 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1450,7 +1450,7 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1470,7 +1470,7 @@
         <v>33</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>25</v>
@@ -1508,7 +1508,7 @@
         <v>34</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>25</v>
@@ -1546,7 +1546,7 @@
         <v>35</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>25</v>
@@ -1584,7 +1584,7 @@
         <v>36</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>25</v>
@@ -1616,13 +1616,13 @@
         <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F36" t="s">
         <v>37</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>25</v>
@@ -1660,7 +1660,7 @@
         <v>38</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>25</v>
@@ -1698,7 +1698,7 @@
         <v>39</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>25</v>
@@ -1736,7 +1736,7 @@
         <v>40</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>25</v>
@@ -1774,7 +1774,7 @@
         <v>41</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>25</v>
@@ -1812,7 +1812,7 @@
         <v>42</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>25</v>
@@ -1844,13 +1844,13 @@
         <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="F42" t="s">
         <v>43</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>25</v>
@@ -1882,13 +1882,13 @@
         <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F43" t="s">
         <v>44</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>25</v>
@@ -1920,13 +1920,13 @@
         <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F44" t="s">
         <v>45</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>25</v>
@@ -1958,13 +1958,13 @@
         <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F45" t="s">
         <v>46</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>25</v>
@@ -1996,13 +1996,13 @@
         <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F46" t="s">
         <v>47</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>25</v>
@@ -2034,13 +2034,13 @@
         <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F47" t="s">
         <v>48</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>25</v>
@@ -2072,13 +2072,13 @@
         <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F48" t="s">
         <v>41</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>25</v>
@@ -2110,13 +2110,13 @@
         <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F49" s="19" t="s">
         <v>57</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>25</v>
@@ -2148,13 +2148,13 @@
         <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F50" s="19" t="s">
         <v>49</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>25</v>
@@ -2186,13 +2186,13 @@
         <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F51" t="s">
         <v>50</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>25</v>
@@ -2224,13 +2224,13 @@
         <v>32</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F52" s="19" t="s">
         <v>51</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>25</v>
@@ -2262,13 +2262,13 @@
         <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F53" s="19" t="s">
         <v>52</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>25</v>
@@ -2300,13 +2300,13 @@
         <v>32</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F54" s="19" t="s">
         <v>53</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>25</v>
@@ -2338,13 +2338,13 @@
         <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>25</v>
@@ -2376,13 +2376,13 @@
         <v>32</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F56" t="s">
         <v>54</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>25</v>
@@ -2414,13 +2414,13 @@
         <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F57" t="s">
         <v>55</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>25</v>
@@ -2452,13 +2452,13 @@
         <v>32</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F58" t="s">
         <v>56</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>25</v>

--- a/ad_works_dw/pipelines/tables.xlsx
+++ b/ad_works_dw/pipelines/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunryan/databricks-patterns/ad_works_dw/pipelines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E6D450-6ADF-B140-B0D2-6FDFC422E8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2A48B5-0C38-FE4E-BCFF-7CC7AD89855D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{EF8CC655-0BC7-D149-95AE-B93FEDAFD6D1}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="115">
   <si>
     <t>stage</t>
   </si>
@@ -301,9 +301,6 @@
   </si>
   <si>
     <t>raw.raw_ad_works_dw.*</t>
-  </si>
-  <si>
-    <t>dim_eseller</t>
   </si>
   <si>
     <t>new_fact_currency_rate</t>
@@ -884,8 +881,8 @@
   <dimension ref="A1:X60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1128,7 +1125,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1212,7 +1209,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1240,7 +1237,7 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1436,7 +1433,7 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1470,7 +1467,7 @@
         <v>33</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>25</v>
@@ -1508,7 +1505,7 @@
         <v>34</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>25</v>
@@ -1546,7 +1543,7 @@
         <v>35</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>25</v>
@@ -1584,7 +1581,7 @@
         <v>36</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>25</v>
@@ -1616,13 +1613,13 @@
         <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F36" t="s">
         <v>37</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>25</v>
@@ -1660,7 +1657,7 @@
         <v>38</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>25</v>
@@ -1698,7 +1695,7 @@
         <v>39</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>25</v>
@@ -1736,7 +1733,7 @@
         <v>40</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>25</v>
@@ -1774,7 +1771,7 @@
         <v>41</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>25</v>
@@ -1812,7 +1809,7 @@
         <v>42</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>25</v>
@@ -1844,13 +1841,13 @@
         <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F42" t="s">
         <v>43</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>25</v>
@@ -1888,7 +1885,7 @@
         <v>44</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>25</v>
@@ -1926,7 +1923,7 @@
         <v>45</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>25</v>
@@ -1964,7 +1961,7 @@
         <v>46</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>25</v>
@@ -2002,7 +1999,7 @@
         <v>47</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>25</v>
@@ -2040,7 +2037,7 @@
         <v>48</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>25</v>
@@ -2078,7 +2075,7 @@
         <v>41</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>25</v>
@@ -2116,7 +2113,7 @@
         <v>57</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>25</v>
@@ -2154,7 +2151,7 @@
         <v>49</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>25</v>
@@ -2192,7 +2189,7 @@
         <v>50</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>25</v>
@@ -2230,7 +2227,7 @@
         <v>51</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>25</v>
@@ -2268,7 +2265,7 @@
         <v>52</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>25</v>
@@ -2306,7 +2303,7 @@
         <v>53</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>25</v>
@@ -2344,7 +2341,7 @@
         <v>51</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>25</v>
@@ -2382,7 +2379,7 @@
         <v>54</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>25</v>
@@ -2420,7 +2417,7 @@
         <v>55</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>25</v>
@@ -2458,7 +2455,7 @@
         <v>56</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>25</v>

--- a/ad_works_dw/pipelines/tables.xlsx
+++ b/ad_works_dw/pipelines/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunryan/databricks-patterns/ad_works_dw/pipelines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2A48B5-0C38-FE4E-BCFF-7CC7AD89855D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32F1E2B-0058-AF46-8418-1965FBDE6BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{EF8CC655-0BC7-D149-95AE-B93FEDAFD6D1}"/>
   </bookViews>
@@ -336,9 +336,6 @@
     <t>landing.landing_ad_works_dw.dim_promotion</t>
   </si>
   <si>
-    <t>landing.landing_ad_works_dw.dim_eseller</t>
-  </si>
-  <si>
     <t>landing.landing_ad_works_dw.dim_salesreason</t>
   </si>
   <si>
@@ -391,6 +388,9 @@
   </si>
   <si>
     <t>landing.landing_ad_works_dw.dim_product_sub_category</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_reseller</t>
   </si>
 </sst>
 </file>
@@ -882,7 +882,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1125,7 +1125,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1209,7 +1209,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1613,13 +1613,13 @@
         <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F36" t="s">
         <v>37</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>25</v>
@@ -1841,13 +1841,13 @@
         <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F42" t="s">
         <v>43</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>25</v>
@@ -1923,7 +1923,7 @@
         <v>45</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>25</v>
@@ -1961,7 +1961,7 @@
         <v>46</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>25</v>
@@ -1999,7 +1999,7 @@
         <v>47</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>25</v>
@@ -2037,7 +2037,7 @@
         <v>48</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>25</v>
@@ -2075,7 +2075,7 @@
         <v>41</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>25</v>
@@ -2113,7 +2113,7 @@
         <v>57</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>25</v>
@@ -2151,7 +2151,7 @@
         <v>49</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>25</v>
@@ -2189,7 +2189,7 @@
         <v>50</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>25</v>
@@ -2227,7 +2227,7 @@
         <v>51</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>25</v>
@@ -2265,7 +2265,7 @@
         <v>52</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>25</v>
@@ -2303,7 +2303,7 @@
         <v>53</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>25</v>
@@ -2341,7 +2341,7 @@
         <v>51</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>25</v>
@@ -2379,7 +2379,7 @@
         <v>54</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>25</v>
@@ -2417,7 +2417,7 @@
         <v>55</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>25</v>
@@ -2455,7 +2455,7 @@
         <v>56</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>25</v>

--- a/ad_works_dw/pipelines/tables.xlsx
+++ b/ad_works_dw/pipelines/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunryan/databricks-patterns/ad_works_dw/pipelines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32F1E2B-0058-AF46-8418-1965FBDE6BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC61348-57E6-DA45-AC33-8387B4D101EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{EF8CC655-0BC7-D149-95AE-B93FEDAFD6D1}"/>
   </bookViews>

--- a/ad_works_dw/pipelines/tables.xlsx
+++ b/ad_works_dw/pipelines/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunryan/databricks-patterns/ad_works_dw/pipelines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC61348-57E6-DA45-AC33-8387B4D101EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BBDF2B-A18B-E24F-B7B7-8F17B325DB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{EF8CC655-0BC7-D149-95AE-B93FEDAFD6D1}"/>
+    <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{EF8CC655-0BC7-D149-95AE-B93FEDAFD6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="117">
   <si>
     <t>stage</t>
   </si>
@@ -336,12 +336,6 @@
     <t>landing.landing_ad_works_dw.dim_promotion</t>
   </si>
   <si>
-    <t>landing.landing_ad_works_dw.dim_salesreason</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dim_salesterritory</t>
-  </si>
-  <si>
     <t>landing.landing_ad_works_dw.dim_scenario</t>
   </si>
   <si>
@@ -391,6 +385,18 @@
   </si>
   <si>
     <t>landing.landing_ad_works_dw.dim_reseller</t>
+  </si>
+  <si>
+    <t>dim_sales_reason</t>
+  </si>
+  <si>
+    <t>dim_sales_territory</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_sales_reason</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_sales_territory</t>
   </si>
 </sst>
 </file>
@@ -882,7 +888,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1125,7 +1131,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1209,7 +1215,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1251,7 +1257,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1265,7 +1271,7 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1613,13 +1619,13 @@
         <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F36" t="s">
         <v>37</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>25</v>
@@ -1841,13 +1847,13 @@
         <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F42" t="s">
         <v>43</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>25</v>
@@ -1923,7 +1929,7 @@
         <v>45</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>25</v>
@@ -1961,7 +1967,7 @@
         <v>46</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>25</v>
@@ -1999,7 +2005,7 @@
         <v>47</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>25</v>
@@ -2037,7 +2043,7 @@
         <v>48</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>25</v>
@@ -2075,7 +2081,7 @@
         <v>41</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>25</v>
@@ -2113,7 +2119,7 @@
         <v>57</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>25</v>
@@ -2151,7 +2157,7 @@
         <v>49</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>25</v>
@@ -2189,7 +2195,7 @@
         <v>50</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>25</v>
@@ -2227,7 +2233,7 @@
         <v>51</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>25</v>
@@ -2265,7 +2271,7 @@
         <v>52</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>25</v>
@@ -2303,7 +2309,7 @@
         <v>53</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>25</v>
@@ -2341,7 +2347,7 @@
         <v>51</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>25</v>
@@ -2379,7 +2385,7 @@
         <v>54</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>25</v>
@@ -2417,7 +2423,7 @@
         <v>55</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>25</v>
@@ -2455,7 +2461,7 @@
         <v>56</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>25</v>

--- a/ad_works_dw/pipelines/tables.xlsx
+++ b/ad_works_dw/pipelines/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunryan/databricks-patterns/ad_works_dw/pipelines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BBDF2B-A18B-E24F-B7B7-8F17B325DB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7921DD57-FBBE-4E41-A796-FBA7AE98DD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{EF8CC655-0BC7-D149-95AE-B93FEDAFD6D1}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="115">
   <si>
     <t>stage</t>
   </si>
@@ -256,12 +256,6 @@
   </si>
   <si>
     <t>dim_reseller</t>
-  </si>
-  <si>
-    <t>dim_salesreason</t>
-  </si>
-  <si>
-    <t>dim_salesterritory</t>
   </si>
   <si>
     <t>dim_scenario</t>
@@ -887,8 +881,8 @@
   <dimension ref="A1:X60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1042,7 +1036,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1131,7 +1125,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1215,7 +1209,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1257,7 +1251,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1271,7 +1265,7 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1285,7 +1279,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1299,7 +1293,7 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1313,7 +1307,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1327,7 +1321,7 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1341,7 +1335,7 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1355,7 +1349,7 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1369,7 +1363,7 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1383,7 +1377,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1397,7 +1391,7 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1411,7 +1405,7 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1425,7 +1419,7 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1439,7 +1433,7 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1453,7 +1447,7 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1473,7 +1467,7 @@
         <v>33</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>25</v>
@@ -1511,7 +1505,7 @@
         <v>34</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>25</v>
@@ -1549,7 +1543,7 @@
         <v>35</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>25</v>
@@ -1587,7 +1581,7 @@
         <v>36</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>25</v>
@@ -1619,13 +1613,13 @@
         <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F36" t="s">
         <v>37</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>25</v>
@@ -1663,7 +1657,7 @@
         <v>38</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>25</v>
@@ -1701,7 +1695,7 @@
         <v>39</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>25</v>
@@ -1739,7 +1733,7 @@
         <v>40</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>25</v>
@@ -1777,7 +1771,7 @@
         <v>41</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>25</v>
@@ -1815,7 +1809,7 @@
         <v>42</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>25</v>
@@ -1847,13 +1841,13 @@
         <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F42" t="s">
         <v>43</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>25</v>
@@ -1891,7 +1885,7 @@
         <v>44</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>25</v>
@@ -1929,7 +1923,7 @@
         <v>45</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>25</v>
@@ -1961,13 +1955,13 @@
         <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="F45" t="s">
         <v>46</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>25</v>
@@ -1999,13 +1993,13 @@
         <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="F46" t="s">
         <v>47</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>25</v>
@@ -2037,13 +2031,13 @@
         <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F47" t="s">
         <v>48</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>25</v>
@@ -2075,13 +2069,13 @@
         <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F48" t="s">
         <v>41</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>25</v>
@@ -2113,13 +2107,13 @@
         <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F49" s="19" t="s">
         <v>57</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>25</v>
@@ -2151,13 +2145,13 @@
         <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F50" s="19" t="s">
         <v>49</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>25</v>
@@ -2189,13 +2183,13 @@
         <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F51" t="s">
         <v>50</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>25</v>
@@ -2227,13 +2221,13 @@
         <v>32</v>
       </c>
       <c r="D52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F52" s="19" t="s">
         <v>51</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>25</v>
@@ -2265,13 +2259,13 @@
         <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F53" s="19" t="s">
         <v>52</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>25</v>
@@ -2303,13 +2297,13 @@
         <v>32</v>
       </c>
       <c r="D54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F54" s="19" t="s">
         <v>53</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>25</v>
@@ -2341,13 +2335,13 @@
         <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>25</v>
@@ -2379,13 +2373,13 @@
         <v>32</v>
       </c>
       <c r="D56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F56" t="s">
         <v>54</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>25</v>
@@ -2417,13 +2411,13 @@
         <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F57" t="s">
         <v>55</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>25</v>
@@ -2455,13 +2449,13 @@
         <v>32</v>
       </c>
       <c r="D58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F58" t="s">
         <v>56</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>25</v>

--- a/ad_works_dw/pipelines/tables.xlsx
+++ b/ad_works_dw/pipelines/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunryan/databricks-patterns/ad_works_dw/pipelines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7921DD57-FBBE-4E41-A796-FBA7AE98DD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050B8687-1280-8D4F-B862-CEA4D39BBD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{EF8CC655-0BC7-D149-95AE-B93FEDAFD6D1}"/>
   </bookViews>
@@ -264,9 +264,6 @@
     <t>fact_additional_international_product_description</t>
   </si>
   <si>
-    <t>fact_call_center</t>
-  </si>
-  <si>
     <t>fact_currency_rate</t>
   </si>
   <si>
@@ -336,9 +333,6 @@
     <t>landing.landing_ad_works_dw.fact_additional_international_product_description</t>
   </si>
   <si>
-    <t>landing.landing_ad_works_dw.fact_call_center</t>
-  </si>
-  <si>
     <t>landing.landing_ad_works_dw.fact_currency_rate</t>
   </si>
   <si>
@@ -391,6 +385,12 @@
   </si>
   <si>
     <t>landing.landing_ad_works_dw.dim_sales_territory</t>
+  </si>
+  <si>
+    <t>fact_call_centre</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.fact_call_centre</t>
   </si>
 </sst>
 </file>
@@ -881,8 +881,8 @@
   <dimension ref="A1:X60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1125,7 +1125,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1209,7 +1209,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1251,7 +1251,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1265,7 +1265,7 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1307,7 +1307,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1321,7 +1321,7 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1335,7 +1335,7 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1349,7 +1349,7 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1363,7 +1363,7 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1377,7 +1377,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1391,7 +1391,7 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1405,7 +1405,7 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1419,7 +1419,7 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1433,7 +1433,7 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1447,7 +1447,7 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
         <v>33</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>25</v>
@@ -1505,7 +1505,7 @@
         <v>34</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>25</v>
@@ -1543,7 +1543,7 @@
         <v>35</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>25</v>
@@ -1581,7 +1581,7 @@
         <v>36</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>25</v>
@@ -1613,13 +1613,13 @@
         <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F36" t="s">
         <v>37</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>25</v>
@@ -1657,7 +1657,7 @@
         <v>38</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>25</v>
@@ -1695,7 +1695,7 @@
         <v>39</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>25</v>
@@ -1733,7 +1733,7 @@
         <v>40</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>25</v>
@@ -1771,7 +1771,7 @@
         <v>41</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>25</v>
@@ -1809,7 +1809,7 @@
         <v>42</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>25</v>
@@ -1841,13 +1841,13 @@
         <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F42" t="s">
         <v>43</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>25</v>
@@ -1885,7 +1885,7 @@
         <v>44</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>25</v>
@@ -1923,7 +1923,7 @@
         <v>45</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>25</v>
@@ -1955,13 +1955,13 @@
         <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F45" t="s">
         <v>46</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>25</v>
@@ -1993,13 +1993,13 @@
         <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F46" t="s">
         <v>47</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>25</v>
@@ -2037,7 +2037,7 @@
         <v>48</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>25</v>
@@ -2075,7 +2075,7 @@
         <v>41</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>25</v>
@@ -2107,13 +2107,13 @@
         <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="F49" s="19" t="s">
         <v>57</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>25</v>
@@ -2145,13 +2145,13 @@
         <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F50" s="19" t="s">
         <v>49</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>25</v>
@@ -2183,13 +2183,13 @@
         <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F51" t="s">
         <v>50</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>25</v>
@@ -2221,13 +2221,13 @@
         <v>32</v>
       </c>
       <c r="D52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F52" s="19" t="s">
         <v>51</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>25</v>
@@ -2259,13 +2259,13 @@
         <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F53" s="19" t="s">
         <v>52</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>25</v>
@@ -2297,13 +2297,13 @@
         <v>32</v>
       </c>
       <c r="D54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F54" s="19" t="s">
         <v>53</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>25</v>
@@ -2335,13 +2335,13 @@
         <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>25</v>
@@ -2373,13 +2373,13 @@
         <v>32</v>
       </c>
       <c r="D56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s">
         <v>54</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>25</v>
@@ -2411,13 +2411,13 @@
         <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s">
         <v>55</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>25</v>
@@ -2449,13 +2449,13 @@
         <v>32</v>
       </c>
       <c r="D58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F58" t="s">
         <v>56</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>25</v>

--- a/ad_works_dw/pipelines/tables.xlsx
+++ b/ad_works_dw/pipelines/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunryan/databricks-patterns/ad_works_dw/pipelines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050B8687-1280-8D4F-B862-CEA4D39BBD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B863F9-BBF3-F94D-9186-BC3EF2636DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{EF8CC655-0BC7-D149-95AE-B93FEDAFD6D1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$32:$G$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$31:$G$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="112">
   <si>
     <t>stage</t>
   </si>
@@ -214,9 +214,6 @@
     <t>SurveyResponseKey</t>
   </si>
   <si>
-    <t>ProspectiveBuyerKey</t>
-  </si>
-  <si>
     <t>DateKey
 FactCallCenterID
 Shift</t>
@@ -288,9 +285,6 @@
     <t>fact_survey_response</t>
   </si>
   <si>
-    <t>prospective_buyer</t>
-  </si>
-  <si>
     <t>raw.raw_ad_works_dw.*</t>
   </si>
   <si>
@@ -355,9 +349,6 @@
   </si>
   <si>
     <t>landing.landing_ad_works_dw.fact_survey_response</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.prospective_buyer</t>
   </si>
   <si>
     <t>dim_department</t>
@@ -878,11 +869,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4BE862-6320-9C46-8273-3C68143DBB4D}">
-  <dimension ref="A1:X60"/>
+  <dimension ref="A1:X58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1026,7 +1017,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>15</v>
@@ -1036,7 +1027,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1069,7 +1060,7 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1083,7 +1074,7 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1097,7 +1088,7 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1111,7 +1102,7 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1125,7 +1116,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1139,7 +1130,7 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1153,7 +1144,7 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1167,7 +1158,7 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1181,7 +1172,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1195,7 +1186,7 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1209,7 +1200,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1223,7 +1214,7 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1237,7 +1228,7 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1251,7 +1242,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1265,7 +1256,7 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1279,7 +1270,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1293,7 +1284,7 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1307,7 +1298,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1321,7 +1312,7 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1335,7 +1326,7 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1349,7 +1340,7 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1363,7 +1354,7 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1377,7 +1368,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1391,7 +1382,7 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1405,7 +1396,7 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1419,7 +1410,7 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1433,21 +1424,45 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="6">
+        <v>30</v>
+      </c>
+      <c r="S31" s="2">
+        <v>0</v>
+      </c>
+      <c r="U31" s="2">
+        <v>1</v>
+      </c>
+      <c r="V31" s="18">
+        <v>1</v>
+      </c>
+      <c r="W31" s="16">
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1464,10 +1479,10 @@
         <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>25</v>
@@ -1502,10 +1517,10 @@
         <v>60</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>25</v>
@@ -1540,10 +1555,10 @@
         <v>61</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>25</v>
@@ -1575,13 +1590,13 @@
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>25</v>
@@ -1613,13 +1628,13 @@
         <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>25</v>
@@ -1654,10 +1669,10 @@
         <v>63</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>25</v>
@@ -1692,10 +1707,10 @@
         <v>64</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>25</v>
@@ -1730,10 +1745,10 @@
         <v>65</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>25</v>
@@ -1768,10 +1783,10 @@
         <v>66</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>25</v>
@@ -1803,13 +1818,13 @@
         <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>25</v>
@@ -1841,13 +1856,13 @@
         <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>25</v>
@@ -1882,10 +1897,10 @@
         <v>68</v>
       </c>
       <c r="F43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>25</v>
@@ -1917,10 +1932,10 @@
         <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>108</v>
@@ -1955,13 +1970,13 @@
         <v>32</v>
       </c>
       <c r="D45" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="F45" t="s">
-        <v>46</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>25</v>
@@ -1993,13 +2008,13 @@
         <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>25</v>
@@ -2034,87 +2049,87 @@
         <v>70</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" s="6">
+        <v>30</v>
+      </c>
+      <c r="S47" s="2">
+        <v>0</v>
+      </c>
+      <c r="U47" s="2">
+        <v>1</v>
+      </c>
+      <c r="V47" s="18">
+        <v>1</v>
+      </c>
+      <c r="W47" s="16">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48" s="6">
+        <v>30</v>
+      </c>
+      <c r="S48" s="2">
+        <v>0</v>
+      </c>
+      <c r="U48" s="2">
+        <v>1</v>
+      </c>
+      <c r="V48" s="18">
+        <v>1</v>
+      </c>
+      <c r="W48" s="16">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M47" s="6">
-        <v>30</v>
-      </c>
-      <c r="S47" s="2">
-        <v>0</v>
-      </c>
-      <c r="U47" s="2">
-        <v>1</v>
-      </c>
-      <c r="V47" s="18">
-        <v>1</v>
-      </c>
-      <c r="W47" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" t="s">
-        <v>71</v>
-      </c>
-      <c r="F48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M48" s="6">
-        <v>30</v>
-      </c>
-      <c r="S48" s="2">
-        <v>0</v>
-      </c>
-      <c r="U48" s="2">
-        <v>1</v>
-      </c>
-      <c r="V48" s="18">
-        <v>1</v>
-      </c>
-      <c r="W48" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" t="s">
-        <v>113</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>25</v>
       </c>
@@ -2134,7 +2149,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>18</v>
       </c>
@@ -2147,11 +2162,11 @@
       <c r="D50" t="s">
         <v>72</v>
       </c>
-      <c r="F50" s="19" t="s">
-        <v>49</v>
+      <c r="F50" t="s">
+        <v>50</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>25</v>
@@ -2172,7 +2187,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>18</v>
       </c>
@@ -2185,11 +2200,11 @@
       <c r="D51" t="s">
         <v>73</v>
       </c>
-      <c r="F51" t="s">
-        <v>50</v>
+      <c r="F51" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>25</v>
@@ -2210,7 +2225,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>18</v>
       </c>
@@ -2224,10 +2239,10 @@
         <v>74</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>25</v>
@@ -2248,7 +2263,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>18</v>
       </c>
@@ -2262,10 +2277,10 @@
         <v>75</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>25</v>
@@ -2299,11 +2314,11 @@
       <c r="D54" t="s">
         <v>76</v>
       </c>
-      <c r="F54" s="19" t="s">
-        <v>53</v>
+      <c r="F54" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>25</v>
@@ -2324,7 +2339,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>18</v>
       </c>
@@ -2337,11 +2352,11 @@
       <c r="D55" t="s">
         <v>77</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>51</v>
+      <c r="F55" t="s">
+        <v>54</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>25</v>
@@ -2376,10 +2391,10 @@
         <v>78</v>
       </c>
       <c r="F56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>25</v>
@@ -2400,107 +2415,31 @@
         <v>365</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D57" t="s">
-        <v>79</v>
-      </c>
-      <c r="F57" t="s">
-        <v>55</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M57" s="6">
-        <v>30</v>
-      </c>
-      <c r="S57" s="2">
-        <v>0</v>
-      </c>
-      <c r="U57" s="2">
-        <v>1</v>
-      </c>
-      <c r="V57" s="18">
-        <v>1</v>
-      </c>
-      <c r="W57" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" t="s">
-        <v>80</v>
-      </c>
-      <c r="F58" t="s">
-        <v>56</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M58" s="6">
-        <v>30</v>
-      </c>
-      <c r="S58" s="2">
-        <v>0</v>
-      </c>
-      <c r="U58" s="2">
-        <v>1</v>
-      </c>
-      <c r="V58" s="18">
-        <v>1</v>
-      </c>
-      <c r="W58" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="15"/>
-      <c r="W60" s="17"/>
-      <c r="X60" s="6"/>
+    <row r="58" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="17"/>
+      <c r="X58" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/ad_works_dw/pipelines/tables.xlsx
+++ b/ad_works_dw/pipelines/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunryan/databricks-patterns/ad_works_dw/pipelines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B863F9-BBF3-F94D-9186-BC3EF2636DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46CD138-2BAF-1B4E-B20A-1DDC434F06BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{EF8CC655-0BC7-D149-95AE-B93FEDAFD6D1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$31:$G$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$30:$G$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="111">
   <si>
     <t>stage</t>
   </si>
@@ -286,9 +286,6 @@
   </si>
   <si>
     <t>raw.raw_ad_works_dw.*</t>
-  </si>
-  <si>
-    <t>new_fact_currency_rate</t>
   </si>
   <si>
     <t>landing.landing_ad_works_dw.dim_account</t>
@@ -869,11 +866,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4BE862-6320-9C46-8273-3C68143DBB4D}">
-  <dimension ref="A1:X58"/>
+  <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57:XFD57"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1116,7 +1113,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1200,7 +1197,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1242,7 +1239,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1256,7 +1253,7 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1298,7 +1295,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1415,16 +1412,40 @@
     </row>
     <row r="30" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>80</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" s="6">
+        <v>30</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2">
+        <v>1</v>
+      </c>
+      <c r="V30" s="18">
+        <v>1</v>
+      </c>
+      <c r="W30" s="16">
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1438,10 +1459,10 @@
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>81</v>
@@ -1476,10 +1497,10 @@
         <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>82</v>
@@ -1514,10 +1535,10 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>83</v>
@@ -1552,13 +1573,13 @@
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>25</v>
@@ -1590,13 +1611,13 @@
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>25</v>
@@ -1628,10 +1649,10 @@
         <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>85</v>
@@ -1666,10 +1687,10 @@
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>86</v>
@@ -1704,10 +1725,10 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>87</v>
@@ -1742,10 +1763,10 @@
         <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>88</v>
@@ -1780,13 +1801,13 @@
         <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>25</v>
@@ -1818,13 +1839,13 @@
         <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>25</v>
@@ -1856,13 +1877,13 @@
         <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>25</v>
@@ -1894,13 +1915,13 @@
         <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>25</v>
@@ -1935,7 +1956,7 @@
         <v>106</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>108</v>
@@ -1970,13 +1991,13 @@
         <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>25</v>
@@ -2008,10 +2029,10 @@
         <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>91</v>
@@ -2035,7 +2056,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
@@ -2046,52 +2067,52 @@
         <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
-      </c>
-      <c r="F47" t="s">
-        <v>41</v>
+        <v>109</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="G47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" s="6">
+        <v>30</v>
+      </c>
+      <c r="S47" s="2">
+        <v>0</v>
+      </c>
+      <c r="U47" s="2">
+        <v>1</v>
+      </c>
+      <c r="V47" s="18">
+        <v>1</v>
+      </c>
+      <c r="W47" s="16">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M47" s="6">
-        <v>30</v>
-      </c>
-      <c r="S47" s="2">
-        <v>0</v>
-      </c>
-      <c r="U47" s="2">
-        <v>1</v>
-      </c>
-      <c r="V47" s="18">
-        <v>1</v>
-      </c>
-      <c r="W47" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="51" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" t="s">
-        <v>110</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>25</v>
       </c>
@@ -2111,7 +2132,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>18</v>
       </c>
@@ -2122,10 +2143,10 @@
         <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>71</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>49</v>
+        <v>72</v>
+      </c>
+      <c r="F49" t="s">
+        <v>50</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>93</v>
@@ -2149,7 +2170,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>18</v>
       </c>
@@ -2160,10 +2181,10 @@
         <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>72</v>
-      </c>
-      <c r="F50" t="s">
-        <v>50</v>
+        <v>73</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>94</v>
@@ -2187,7 +2208,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>18</v>
       </c>
@@ -2198,10 +2219,10 @@
         <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>95</v>
@@ -2225,7 +2246,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>18</v>
       </c>
@@ -2236,10 +2257,10 @@
         <v>32</v>
       </c>
       <c r="D52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>96</v>
@@ -2274,10 +2295,10 @@
         <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>75</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>53</v>
+        <v>76</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>97</v>
@@ -2301,7 +2322,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>18</v>
       </c>
@@ -2312,10 +2333,10 @@
         <v>32</v>
       </c>
       <c r="D54" t="s">
-        <v>76</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>51</v>
+        <v>77</v>
+      </c>
+      <c r="F54" t="s">
+        <v>54</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>98</v>
@@ -2350,10 +2371,10 @@
         <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>99</v>
@@ -2377,69 +2398,31 @@
         <v>365</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" t="s">
-        <v>78</v>
-      </c>
-      <c r="F56" t="s">
-        <v>55</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M56" s="6">
-        <v>30</v>
-      </c>
-      <c r="S56" s="2">
-        <v>0</v>
-      </c>
-      <c r="U56" s="2">
-        <v>1</v>
-      </c>
-      <c r="V56" s="18">
-        <v>1</v>
-      </c>
-      <c r="W56" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="15"/>
-      <c r="W58" s="17"/>
-      <c r="X58" s="6"/>
+    <row r="57" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="17"/>
+      <c r="X57" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/ad_works_dw/pipelines/tables.xlsx
+++ b/ad_works_dw/pipelines/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunryan/databricks-patterns/ad_works_dw/pipelines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46CD138-2BAF-1B4E-B20A-1DDC434F06BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C29D234-40C1-5643-A3CF-405559177072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{EF8CC655-0BC7-D149-95AE-B93FEDAFD6D1}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{EF8CC655-0BC7-D149-95AE-B93FEDAFD6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,12 +134,6 @@
     <t>vacuum</t>
   </si>
   <si>
-    <t>landing_ad_works_dw</t>
-  </si>
-  <si>
-    <t>raw_ad_works_dw</t>
-  </si>
-  <si>
     <t>AccountKey</t>
   </si>
   <si>
@@ -219,9 +213,6 @@
 Shift</t>
   </si>
   <si>
-    <t>control_ad_works_dw</t>
-  </si>
-  <si>
     <t>dim_account</t>
   </si>
   <si>
@@ -285,100 +276,109 @@
     <t>fact_survey_response</t>
   </si>
   <si>
-    <t>raw.raw_ad_works_dw.*</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dim_account</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dim_currency</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dim_customer</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dim_date</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dim_employee</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dim_geography</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dim_organization</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dim_product</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dim_product_category</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dim_promotion</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dim_scenario</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.fact_additional_international_product_description</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.fact_currency_rate</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.fact_finance</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.fact_internet_sales</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.fact_internet_sales_reason</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.fact_product_inventory</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.fact_reseller_sales</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.fact_sales_quota</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.fact_survey_response</t>
-  </si>
-  <si>
     <t>dim_department</t>
   </si>
   <si>
-    <t>landing.landing_ad_works_dw.dim_department</t>
-  </si>
-  <si>
     <t>dim_product_sub_category</t>
   </si>
   <si>
-    <t>landing.landing_ad_works_dw.dim_product_sub_category</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dim_reseller</t>
-  </si>
-  <si>
     <t>dim_sales_reason</t>
   </si>
   <si>
     <t>dim_sales_territory</t>
   </si>
   <si>
-    <t>landing.landing_ad_works_dw.dim_sales_reason</t>
-  </si>
-  <si>
-    <t>landing.landing_ad_works_dw.dim_sales_territory</t>
-  </si>
-  <si>
     <t>fact_call_centre</t>
   </si>
   <si>
-    <t>landing.landing_ad_works_dw.fact_call_centre</t>
+    <t>yetl_landing_ad_works_dw</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.dim_account</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.dim_currency</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.dim_customer</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.dim_date</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.dim_department</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.dim_employee</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.dim_geography</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.dim_organization</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.dim_product</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.dim_product_category</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.dim_product_sub_category</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.dim_promotion</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.dim_reseller</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.dim_sales_reason</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.dim_sales_territory</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.dim_scenario</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.fact_additional_international_product_description</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.fact_call_centre</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.fact_currency_rate</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.fact_finance</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.fact_internet_sales</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.fact_internet_sales_reason</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.fact_product_inventory</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.fact_reseller_sales</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.fact_sales_quota</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_ad_works_dw.fact_survey_response</t>
+  </si>
+  <si>
+    <t>raw.yetl_raw_ad_works_dw.*</t>
+  </si>
+  <si>
+    <t>yetl_raw_ad_works_dw</t>
+  </si>
+  <si>
+    <t>yetl_control_ad_works_dw</t>
   </si>
 </sst>
 </file>
@@ -535,16 +535,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -870,7 +870,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30:XFD30"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -903,25 +903,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="24" t="s">
@@ -932,31 +932,31 @@
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="20" t="s">
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
       <c r="V1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="W1" s="25"/>
     </row>
     <row r="2" spans="1:24" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="11" t="s">
         <v>21</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>15</v>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1054,10 +1054,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1068,10 +1068,10 @@
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1082,10 +1082,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1096,10 +1096,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1110,10 +1110,10 @@
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1124,10 +1124,10 @@
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1138,10 +1138,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1152,10 +1152,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1166,10 +1166,10 @@
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1180,10 +1180,10 @@
         <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1194,10 +1194,10 @@
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1208,10 +1208,10 @@
         <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1222,10 +1222,10 @@
         <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1236,10 +1236,10 @@
         <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1250,10 +1250,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1264,10 +1264,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1278,10 +1278,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1292,10 +1292,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1306,10 +1306,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1320,10 +1320,10 @@
         <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1334,10 +1334,10 @@
         <v>17</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1348,10 +1348,10 @@
         <v>17</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1362,10 +1362,10 @@
         <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1376,10 +1376,10 @@
         <v>17</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1390,10 +1390,10 @@
         <v>17</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1404,10 +1404,10 @@
         <v>17</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -1418,16 +1418,16 @@
         <v>14</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>25</v>
@@ -1456,16 +1456,16 @@
         <v>14</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
         <v>32</v>
       </c>
-      <c r="D31" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>34</v>
-      </c>
       <c r="G31" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>25</v>
@@ -1494,16 +1494,16 @@
         <v>14</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>25</v>
@@ -1532,16 +1532,16 @@
         <v>14</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>25</v>
@@ -1570,16 +1570,16 @@
         <v>14</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>25</v>
@@ -1608,16 +1608,16 @@
         <v>14</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>25</v>
@@ -1646,16 +1646,16 @@
         <v>14</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>25</v>
@@ -1684,16 +1684,16 @@
         <v>14</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>25</v>
@@ -1722,16 +1722,16 @@
         <v>14</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>25</v>
@@ -1760,16 +1760,16 @@
         <v>14</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>25</v>
@@ -1798,16 +1798,16 @@
         <v>14</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>25</v>
@@ -1836,16 +1836,16 @@
         <v>14</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>25</v>
@@ -1874,16 +1874,16 @@
         <v>14</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>25</v>
@@ -1912,16 +1912,16 @@
         <v>14</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>25</v>
@@ -1950,16 +1950,16 @@
         <v>14</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>25</v>
@@ -1988,16 +1988,16 @@
         <v>14</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>25</v>
@@ -2026,16 +2026,16 @@
         <v>14</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>25</v>
@@ -2064,16 +2064,16 @@
         <v>14</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>25</v>
@@ -2102,16 +2102,16 @@
         <v>14</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D48" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>25</v>
@@ -2140,16 +2140,16 @@
         <v>14</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>25</v>
@@ -2178,16 +2178,16 @@
         <v>14</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D50" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>25</v>
@@ -2216,16 +2216,16 @@
         <v>14</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>25</v>
@@ -2254,16 +2254,16 @@
         <v>14</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D52" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>25</v>
@@ -2292,16 +2292,16 @@
         <v>14</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D53" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>25</v>
@@ -2330,16 +2330,16 @@
         <v>14</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>25</v>
@@ -2368,16 +2368,16 @@
         <v>14</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D55" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>25</v>
@@ -2426,17 +2426,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ad_works_dw/pipelines/tables.xlsx
+++ b/ad_works_dw/pipelines/tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunryan/databricks-patterns/ad_works_dw/pipelines/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunryan/python/databricks-patterns/ad_works_dw/pipelines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D381543-1FA8-6A45-A8AD-45314EBF076E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDA43B7-5334-3643-BC5C-548189787DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{EF8CC655-0BC7-D149-95AE-B93FEDAFD6D1}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="114">
   <si>
     <t>stage</t>
   </si>
@@ -285,96 +285,6 @@
     <t>fact_call_centre</t>
   </si>
   <si>
-    <t>yetl_landing_ad_works_dw</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.dim_account</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.dim_currency</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.dim_customer</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.dim_date</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.dim_department</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.dim_employee</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.dim_geography</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.dim_organization</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.dim_product</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.dim_product_category</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.dim_product_sub_category</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.dim_promotion</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.dim_reseller</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.dim_sales_reason</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.dim_sales_territory</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.dim_scenario</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.fact_additional_international_product_description</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.fact_call_centre</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.fact_currency_rate</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.fact_finance</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.fact_internet_sales</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.fact_internet_sales_reason</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.fact_product_inventory</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.fact_reseller_sales</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.fact_sales_quota</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_ad_works_dw.fact_survey_response</t>
-  </si>
-  <si>
-    <t>raw.yetl_raw_ad_works_dw.*</t>
-  </si>
-  <si>
-    <t>yetl_raw_ad_works_dw</t>
-  </si>
-  <si>
-    <t>yetl_control_ad_works_dw</t>
-  </si>
-  <si>
     <t>catalog</t>
   </si>
   <si>
@@ -382,6 +292,102 @@
   </si>
   <si>
     <t>min_rows</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_account</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_currency</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_customer</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_date</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_department</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_employee</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_geography</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_organization</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_product</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_product_category</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_product_sub_category</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_promotion</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_reseller</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_sales_reason</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_sales_territory</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.dim_scenario</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.fact_additional_international_product_description</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.fact_call_centre</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.fact_currency_rate</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.fact_finance</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.fact_internet_sales</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.fact_internet_sales_reason</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.fact_product_inventory</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.fact_reseller_sales</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.fact_sales_quota</t>
+  </si>
+  <si>
+    <t>landing.landing_ad_works_dw.fact_survey_response</t>
+  </si>
+  <si>
+    <t>raw.raw_ad_works_dw.*</t>
+  </si>
+  <si>
+    <t>control_ad_works_dw</t>
+  </si>
+  <si>
+    <t>landing_ad_works_dw</t>
+  </si>
+  <si>
+    <t>raw_ad_works_dw</t>
+  </si>
+  <si>
+    <t>cluster_by</t>
+  </si>
+  <si>
+    <t>development</t>
   </si>
 </sst>
 </file>
@@ -538,16 +544,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -869,18 +875,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4BE862-6320-9C46-8273-3C68143DBB4D}">
-  <dimension ref="A1:Y57"/>
+  <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="23" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.5" style="2" bestFit="1" customWidth="1"/>
@@ -889,46 +895,47 @@
     <col min="9" max="9" width="34.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="16" style="2"/>
+    <col min="12" max="12" width="11" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="16" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="24" t="s">
@@ -939,32 +946,33 @@
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
       <c r="N1" s="24"/>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="24"/>
+      <c r="P1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="25" t="s">
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="25"/>
-    </row>
-    <row r="2" spans="1:25" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="Y1" s="25"/>
+    </row>
+    <row r="2" spans="1:26" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="11" t="s">
         <v>19</v>
       </c>
@@ -975,55 +983,60 @@
         <v>26</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="X2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="Y2" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="4" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" s="4" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
@@ -1033,428 +1046,483 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="6">
-        <v>30</v>
-      </c>
-      <c r="O3" s="5"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="6">
+        <v>30</v>
+      </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="7"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="5"/>
-    </row>
-    <row r="4" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="W3" s="5"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D16" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D18" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D21" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D22" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D23" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D24" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D25" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D26" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D27" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D28" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D29" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D30" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
         <v>53</v>
@@ -1463,37 +1531,39 @@
         <v>29</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N30" s="6">
-        <v>30</v>
-      </c>
-      <c r="T30" s="2">
+      <c r="O30" s="6">
+        <v>30</v>
+      </c>
+      <c r="U30" s="2">
         <v>0</v>
       </c>
-      <c r="V30" s="2">
-        <v>1</v>
-      </c>
-      <c r="W30" s="18">
-        <v>1</v>
-      </c>
-      <c r="X30" s="16">
+      <c r="W30" s="2">
+        <v>1</v>
+      </c>
+      <c r="X30" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D31" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
         <v>54</v>
@@ -1502,37 +1572,39 @@
         <v>30</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N31" s="6">
-        <v>30</v>
-      </c>
-      <c r="T31" s="2">
+      <c r="O31" s="6">
+        <v>30</v>
+      </c>
+      <c r="U31" s="2">
         <v>0</v>
       </c>
-      <c r="V31" s="2">
-        <v>1</v>
-      </c>
-      <c r="W31" s="18">
-        <v>1</v>
-      </c>
-      <c r="X31" s="16">
+      <c r="W31" s="2">
+        <v>1</v>
+      </c>
+      <c r="X31" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D32" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
         <v>55</v>
@@ -1541,37 +1613,39 @@
         <v>31</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N32" s="6">
-        <v>30</v>
-      </c>
-      <c r="T32" s="2">
+      <c r="O32" s="6">
+        <v>30</v>
+      </c>
+      <c r="U32" s="2">
         <v>0</v>
       </c>
-      <c r="V32" s="2">
-        <v>1</v>
-      </c>
-      <c r="W32" s="18">
-        <v>1</v>
-      </c>
-      <c r="X32" s="16">
+      <c r="W32" s="2">
+        <v>1</v>
+      </c>
+      <c r="X32" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D33" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s">
         <v>56</v>
@@ -1580,37 +1654,39 @@
         <v>32</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="6">
-        <v>30</v>
-      </c>
-      <c r="T33" s="2">
+      <c r="O33" s="6">
+        <v>30</v>
+      </c>
+      <c r="U33" s="2">
         <v>0</v>
       </c>
-      <c r="V33" s="2">
-        <v>1</v>
-      </c>
-      <c r="W33" s="18">
-        <v>1</v>
-      </c>
-      <c r="X33" s="16">
+      <c r="W33" s="2">
+        <v>1</v>
+      </c>
+      <c r="X33" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D34" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E34" t="s">
         <v>74</v>
@@ -1619,37 +1695,39 @@
         <v>33</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N34" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N34" s="6">
-        <v>30</v>
-      </c>
-      <c r="T34" s="2">
+      <c r="O34" s="6">
+        <v>30</v>
+      </c>
+      <c r="U34" s="2">
         <v>0</v>
       </c>
-      <c r="V34" s="2">
-        <v>1</v>
-      </c>
-      <c r="W34" s="18">
-        <v>1</v>
-      </c>
-      <c r="X34" s="16">
+      <c r="W34" s="2">
+        <v>1</v>
+      </c>
+      <c r="X34" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D35" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E35" t="s">
         <v>57</v>
@@ -1658,37 +1736,39 @@
         <v>34</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N35" s="6">
-        <v>30</v>
-      </c>
-      <c r="T35" s="2">
+      <c r="O35" s="6">
+        <v>30</v>
+      </c>
+      <c r="U35" s="2">
         <v>0</v>
       </c>
-      <c r="V35" s="2">
-        <v>1</v>
-      </c>
-      <c r="W35" s="18">
-        <v>1</v>
-      </c>
-      <c r="X35" s="16">
+      <c r="W35" s="2">
+        <v>1</v>
+      </c>
+      <c r="X35" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D36" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E36" t="s">
         <v>58</v>
@@ -1697,37 +1777,39 @@
         <v>35</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="M36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N36" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N36" s="6">
-        <v>30</v>
-      </c>
-      <c r="T36" s="2">
+      <c r="O36" s="6">
+        <v>30</v>
+      </c>
+      <c r="U36" s="2">
         <v>0</v>
       </c>
-      <c r="V36" s="2">
-        <v>1</v>
-      </c>
-      <c r="W36" s="18">
-        <v>1</v>
-      </c>
-      <c r="X36" s="16">
+      <c r="W36" s="2">
+        <v>1</v>
+      </c>
+      <c r="X36" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D37" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E37" t="s">
         <v>59</v>
@@ -1736,37 +1818,39 @@
         <v>36</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N37" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N37" s="6">
-        <v>30</v>
-      </c>
-      <c r="T37" s="2">
+      <c r="O37" s="6">
+        <v>30</v>
+      </c>
+      <c r="U37" s="2">
         <v>0</v>
       </c>
-      <c r="V37" s="2">
-        <v>1</v>
-      </c>
-      <c r="W37" s="18">
-        <v>1</v>
-      </c>
-      <c r="X37" s="16">
+      <c r="W37" s="2">
+        <v>1</v>
+      </c>
+      <c r="X37" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D38" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E38" t="s">
         <v>60</v>
@@ -1775,37 +1859,39 @@
         <v>37</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M38" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N38" s="6">
-        <v>30</v>
-      </c>
-      <c r="T38" s="2">
+      <c r="O38" s="6">
+        <v>30</v>
+      </c>
+      <c r="U38" s="2">
         <v>0</v>
       </c>
-      <c r="V38" s="2">
-        <v>1</v>
-      </c>
-      <c r="W38" s="18">
-        <v>1</v>
-      </c>
-      <c r="X38" s="16">
+      <c r="W38" s="2">
+        <v>1</v>
+      </c>
+      <c r="X38" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D39" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>61</v>
@@ -1814,37 +1900,39 @@
         <v>38</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N39" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N39" s="6">
-        <v>30</v>
-      </c>
-      <c r="T39" s="2">
+      <c r="O39" s="6">
+        <v>30</v>
+      </c>
+      <c r="U39" s="2">
         <v>0</v>
       </c>
-      <c r="V39" s="2">
-        <v>1</v>
-      </c>
-      <c r="W39" s="18">
-        <v>1</v>
-      </c>
-      <c r="X39" s="16">
+      <c r="W39" s="2">
+        <v>1</v>
+      </c>
+      <c r="X39" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D40" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
         <v>75</v>
@@ -1853,37 +1941,39 @@
         <v>39</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N40" s="6">
-        <v>30</v>
-      </c>
-      <c r="T40" s="2">
+      <c r="O40" s="6">
+        <v>30</v>
+      </c>
+      <c r="U40" s="2">
         <v>0</v>
       </c>
-      <c r="V40" s="2">
-        <v>1</v>
-      </c>
-      <c r="W40" s="18">
-        <v>1</v>
-      </c>
-      <c r="X40" s="16">
+      <c r="W40" s="2">
+        <v>1</v>
+      </c>
+      <c r="X40" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D41" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E41" t="s">
         <v>62</v>
@@ -1892,37 +1982,39 @@
         <v>40</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="N41" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N41" s="6">
-        <v>30</v>
-      </c>
-      <c r="T41" s="2">
+      <c r="O41" s="6">
+        <v>30</v>
+      </c>
+      <c r="U41" s="2">
         <v>0</v>
       </c>
-      <c r="V41" s="2">
-        <v>1</v>
-      </c>
-      <c r="W41" s="18">
-        <v>1</v>
-      </c>
-      <c r="X41" s="16">
+      <c r="W41" s="2">
+        <v>1</v>
+      </c>
+      <c r="X41" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D42" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E42" t="s">
         <v>63</v>
@@ -1931,37 +2023,39 @@
         <v>41</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N42" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N42" s="6">
-        <v>30</v>
-      </c>
-      <c r="T42" s="2">
+      <c r="O42" s="6">
+        <v>30</v>
+      </c>
+      <c r="U42" s="2">
         <v>0</v>
       </c>
-      <c r="V42" s="2">
-        <v>1</v>
-      </c>
-      <c r="W42" s="18">
-        <v>1</v>
-      </c>
-      <c r="X42" s="16">
+      <c r="W42" s="2">
+        <v>1</v>
+      </c>
+      <c r="X42" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D43" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s">
         <v>76</v>
@@ -1970,37 +2064,39 @@
         <v>42</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M43" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N43" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N43" s="6">
-        <v>30</v>
-      </c>
-      <c r="T43" s="2">
+      <c r="O43" s="6">
+        <v>30</v>
+      </c>
+      <c r="U43" s="2">
         <v>0</v>
       </c>
-      <c r="V43" s="2">
-        <v>1</v>
-      </c>
-      <c r="W43" s="18">
-        <v>1</v>
-      </c>
-      <c r="X43" s="16">
+      <c r="W43" s="2">
+        <v>1</v>
+      </c>
+      <c r="X43" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D44" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E44" t="s">
         <v>77</v>
@@ -2009,37 +2105,39 @@
         <v>43</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N44" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N44" s="6">
-        <v>30</v>
-      </c>
-      <c r="T44" s="2">
+      <c r="O44" s="6">
+        <v>30</v>
+      </c>
+      <c r="U44" s="2">
         <v>0</v>
       </c>
-      <c r="V44" s="2">
-        <v>1</v>
-      </c>
-      <c r="W44" s="18">
-        <v>1</v>
-      </c>
-      <c r="X44" s="16">
+      <c r="W44" s="2">
+        <v>1</v>
+      </c>
+      <c r="X44" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D45" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E45" t="s">
         <v>64</v>
@@ -2048,37 +2146,39 @@
         <v>44</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N45" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N45" s="6">
-        <v>30</v>
-      </c>
-      <c r="T45" s="2">
+      <c r="O45" s="6">
+        <v>30</v>
+      </c>
+      <c r="U45" s="2">
         <v>0</v>
       </c>
-      <c r="V45" s="2">
-        <v>1</v>
-      </c>
-      <c r="W45" s="18">
-        <v>1</v>
-      </c>
-      <c r="X45" s="16">
+      <c r="W45" s="2">
+        <v>1</v>
+      </c>
+      <c r="X45" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D46" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E46" t="s">
         <v>65</v>
@@ -2087,37 +2187,39 @@
         <v>37</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M46" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N46" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N46" s="6">
-        <v>30</v>
-      </c>
-      <c r="T46" s="2">
+      <c r="O46" s="6">
+        <v>30</v>
+      </c>
+      <c r="U46" s="2">
         <v>0</v>
       </c>
-      <c r="V46" s="2">
-        <v>1</v>
-      </c>
-      <c r="W46" s="18">
-        <v>1</v>
-      </c>
-      <c r="X46" s="16">
+      <c r="W46" s="2">
+        <v>1</v>
+      </c>
+      <c r="X46" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D47" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E47" t="s">
         <v>78</v>
@@ -2126,37 +2228,39 @@
         <v>52</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M47" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N47" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N47" s="6">
-        <v>30</v>
-      </c>
-      <c r="T47" s="2">
+      <c r="O47" s="6">
+        <v>30</v>
+      </c>
+      <c r="U47" s="2">
         <v>0</v>
       </c>
-      <c r="V47" s="2">
-        <v>1</v>
-      </c>
-      <c r="W47" s="18">
-        <v>1</v>
-      </c>
-      <c r="X47" s="16">
+      <c r="W47" s="2">
+        <v>1</v>
+      </c>
+      <c r="X47" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D48" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E48" t="s">
         <v>66</v>
@@ -2165,37 +2269,39 @@
         <v>45</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M48" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N48" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N48" s="6">
-        <v>30</v>
-      </c>
-      <c r="T48" s="2">
+      <c r="O48" s="6">
+        <v>30</v>
+      </c>
+      <c r="U48" s="2">
         <v>0</v>
       </c>
-      <c r="V48" s="2">
-        <v>1</v>
-      </c>
-      <c r="W48" s="18">
-        <v>1</v>
-      </c>
-      <c r="X48" s="16">
+      <c r="W48" s="2">
+        <v>1</v>
+      </c>
+      <c r="X48" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D49" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E49" t="s">
         <v>67</v>
@@ -2204,37 +2310,39 @@
         <v>46</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M49" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N49" s="6">
-        <v>30</v>
-      </c>
-      <c r="T49" s="2">
+      <c r="O49" s="6">
+        <v>30</v>
+      </c>
+      <c r="U49" s="2">
         <v>0</v>
       </c>
-      <c r="V49" s="2">
-        <v>1</v>
-      </c>
-      <c r="W49" s="18">
-        <v>1</v>
-      </c>
-      <c r="X49" s="16">
+      <c r="W49" s="2">
+        <v>1</v>
+      </c>
+      <c r="X49" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D50" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>68</v>
@@ -2243,37 +2351,39 @@
         <v>47</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M50" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N50" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N50" s="6">
-        <v>30</v>
-      </c>
-      <c r="T50" s="2">
+      <c r="O50" s="6">
+        <v>30</v>
+      </c>
+      <c r="U50" s="2">
         <v>0</v>
       </c>
-      <c r="V50" s="2">
-        <v>1</v>
-      </c>
-      <c r="W50" s="18">
-        <v>1</v>
-      </c>
-      <c r="X50" s="16">
+      <c r="W50" s="2">
+        <v>1</v>
+      </c>
+      <c r="X50" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D51" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E51" t="s">
         <v>69</v>
@@ -2282,37 +2392,39 @@
         <v>48</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M51" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N51" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N51" s="6">
-        <v>30</v>
-      </c>
-      <c r="T51" s="2">
+      <c r="O51" s="6">
+        <v>30</v>
+      </c>
+      <c r="U51" s="2">
         <v>0</v>
       </c>
-      <c r="V51" s="2">
-        <v>1</v>
-      </c>
-      <c r="W51" s="18">
-        <v>1</v>
-      </c>
-      <c r="X51" s="16">
+      <c r="W51" s="2">
+        <v>1</v>
+      </c>
+      <c r="X51" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D52" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E52" t="s">
         <v>70</v>
@@ -2321,37 +2433,39 @@
         <v>49</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N52" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N52" s="6">
-        <v>30</v>
-      </c>
-      <c r="T52" s="2">
+      <c r="O52" s="6">
+        <v>30</v>
+      </c>
+      <c r="U52" s="2">
         <v>0</v>
       </c>
-      <c r="V52" s="2">
-        <v>1</v>
-      </c>
-      <c r="W52" s="18">
-        <v>1</v>
-      </c>
-      <c r="X52" s="16">
+      <c r="W52" s="2">
+        <v>1</v>
+      </c>
+      <c r="X52" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D53" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E53" t="s">
         <v>71</v>
@@ -2360,37 +2474,39 @@
         <v>47</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M53" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N53" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N53" s="6">
-        <v>30</v>
-      </c>
-      <c r="T53" s="2">
+      <c r="O53" s="6">
+        <v>30</v>
+      </c>
+      <c r="U53" s="2">
         <v>0</v>
       </c>
-      <c r="V53" s="2">
-        <v>1</v>
-      </c>
-      <c r="W53" s="18">
-        <v>1</v>
-      </c>
-      <c r="X53" s="16">
+      <c r="W53" s="2">
+        <v>1</v>
+      </c>
+      <c r="X53" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D54" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E54" t="s">
         <v>72</v>
@@ -2399,37 +2515,39 @@
         <v>50</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M54" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N54" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N54" s="6">
-        <v>30</v>
-      </c>
-      <c r="T54" s="2">
+      <c r="O54" s="6">
+        <v>30</v>
+      </c>
+      <c r="U54" s="2">
         <v>0</v>
       </c>
-      <c r="V54" s="2">
-        <v>1</v>
-      </c>
-      <c r="W54" s="18">
-        <v>1</v>
-      </c>
-      <c r="X54" s="16">
+      <c r="W54" s="2">
+        <v>1</v>
+      </c>
+      <c r="X54" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D55" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E55" t="s">
         <v>73</v>
@@ -2438,28 +2556,28 @@
         <v>51</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M55" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N55" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N55" s="6">
-        <v>30</v>
-      </c>
-      <c r="T55" s="2">
+      <c r="O55" s="6">
+        <v>30</v>
+      </c>
+      <c r="U55" s="2">
         <v>0</v>
       </c>
-      <c r="V55" s="2">
-        <v>1</v>
-      </c>
-      <c r="W55" s="18">
-        <v>1</v>
-      </c>
-      <c r="X55" s="16">
+      <c r="W55" s="2">
+        <v>1</v>
+      </c>
+      <c r="X55" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="57" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2473,26 +2591,22 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
-      <c r="N57" s="6"/>
+      <c r="N57" s="3"/>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="8"/>
       <c r="T57" s="6"/>
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
-      <c r="W57" s="15"/>
-      <c r="X57" s="17"/>
-      <c r="Y57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="17"/>
+      <c r="Z57" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="W1:X1"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
@@ -2500,6 +2614,11 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="X1:Y1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
